--- a/Code/Results/Cases/Case_0_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.983713803136377</v>
+        <v>1.017899151126508</v>
       </c>
       <c r="D2">
-        <v>0.9922627980672537</v>
+        <v>1.020544088705634</v>
       </c>
       <c r="E2">
-        <v>0.9924023773307745</v>
+        <v>1.019234875372977</v>
       </c>
       <c r="F2">
-        <v>0.9596828634704263</v>
+        <v>1.016269099976557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038083582317484</v>
+        <v>1.027402073278272</v>
       </c>
       <c r="J2">
-        <v>1.006392788010602</v>
+        <v>1.023110646044167</v>
       </c>
       <c r="K2">
-        <v>1.003830987320635</v>
+        <v>1.023384060977011</v>
       </c>
       <c r="L2">
-        <v>1.003968583835499</v>
+        <v>1.022078725679131</v>
       </c>
       <c r="M2">
-        <v>0.971733999852001</v>
+        <v>1.01912177548163</v>
       </c>
       <c r="N2">
-        <v>1.006086519651056</v>
+        <v>1.011782814275983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9882833008321907</v>
+        <v>1.018843382827272</v>
       </c>
       <c r="D3">
-        <v>0.9961679471587049</v>
+        <v>1.021400219807826</v>
       </c>
       <c r="E3">
-        <v>0.9960341769359121</v>
+        <v>1.020035439859249</v>
       </c>
       <c r="F3">
-        <v>0.9670225423525202</v>
+        <v>1.017854826511735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03887705769627</v>
+        <v>1.027493721362179</v>
       </c>
       <c r="J3">
-        <v>1.009098552311466</v>
+        <v>1.023690992705011</v>
       </c>
       <c r="K3">
-        <v>1.006850095775825</v>
+        <v>1.024046317098267</v>
       </c>
       <c r="L3">
-        <v>1.006718053972269</v>
+        <v>1.022685286405229</v>
       </c>
       <c r="M3">
-        <v>0.9780955205886233</v>
+        <v>1.020510686138882</v>
       </c>
       <c r="N3">
-        <v>1.007000028589601</v>
+        <v>1.011976949331766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.991173035174616</v>
+        <v>1.019454310653812</v>
       </c>
       <c r="D4">
-        <v>0.9986423189411695</v>
+        <v>1.02195443230348</v>
       </c>
       <c r="E4">
-        <v>0.9983370255563161</v>
+        <v>1.020553803289768</v>
       </c>
       <c r="F4">
-        <v>0.9716489171914836</v>
+        <v>1.018880741203984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039365980399083</v>
+        <v>1.027551424534012</v>
       </c>
       <c r="J4">
-        <v>1.010805262881789</v>
+        <v>1.02406588396398</v>
       </c>
       <c r="K4">
-        <v>1.008757157643629</v>
+        <v>1.024474443555548</v>
       </c>
       <c r="L4">
-        <v>1.008455562738284</v>
+        <v>1.023077467842818</v>
       </c>
       <c r="M4">
-        <v>0.9821020026412322</v>
+        <v>1.021408783869636</v>
       </c>
       <c r="N4">
-        <v>1.007576018049227</v>
+        <v>1.01210229408886</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.992372470930031</v>
+        <v>1.019711132102337</v>
       </c>
       <c r="D5">
-        <v>0.9996704619623998</v>
+        <v>1.022187480023585</v>
       </c>
       <c r="E5">
-        <v>0.9992942869213225</v>
+        <v>1.0207718053412</v>
       </c>
       <c r="F5">
-        <v>0.973565981222227</v>
+        <v>1.019312003953308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039565786164519</v>
+        <v>1.027575299816638</v>
       </c>
       <c r="J5">
-        <v>1.01151259076633</v>
+        <v>1.024223336969571</v>
       </c>
       <c r="K5">
-        <v>1.009548165751663</v>
+        <v>1.024654332642535</v>
       </c>
       <c r="L5">
-        <v>1.009176422511082</v>
+        <v>1.023242267976592</v>
       </c>
       <c r="M5">
-        <v>0.9837613581629093</v>
+        <v>1.021786200453866</v>
       </c>
       <c r="N5">
-        <v>1.007814672572676</v>
+        <v>1.012154923455355</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9925729757854655</v>
+        <v>1.019754252817948</v>
       </c>
       <c r="D6">
-        <v>0.9998423968621779</v>
+        <v>1.02222661308265</v>
       </c>
       <c r="E6">
-        <v>0.9994543908903295</v>
+        <v>1.020808413644014</v>
       </c>
       <c r="F6">
-        <v>0.9738862738285722</v>
+        <v>1.019384413166749</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039599001613454</v>
+        <v>1.027579286106982</v>
       </c>
       <c r="J6">
-        <v>1.011630768384227</v>
+        <v>1.024249765150348</v>
       </c>
       <c r="K6">
-        <v>1.009680362328147</v>
+        <v>1.02468453122164</v>
       </c>
       <c r="L6">
-        <v>1.009296905952821</v>
+        <v>1.02326993436133</v>
       </c>
       <c r="M6">
-        <v>0.9840385438245109</v>
+        <v>1.021849562071874</v>
       </c>
       <c r="N6">
-        <v>1.007854542500628</v>
+        <v>1.012163756310542</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9911891218204764</v>
+        <v>1.019457742363969</v>
       </c>
       <c r="D7">
-        <v>0.9986561038882189</v>
+        <v>1.021957546075773</v>
       </c>
       <c r="E7">
-        <v>0.9983498586288313</v>
+        <v>1.020556715921972</v>
       </c>
       <c r="F7">
-        <v>0.9716746406099073</v>
+        <v>1.018886503875825</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039368672590941</v>
+        <v>1.027551745062483</v>
       </c>
       <c r="J7">
-        <v>1.010814753714536</v>
+        <v>1.024067988453211</v>
       </c>
       <c r="K7">
-        <v>1.008767768730878</v>
+        <v>1.02447684761685</v>
       </c>
       <c r="L7">
-        <v>1.008465232111915</v>
+        <v>1.023079670197135</v>
       </c>
       <c r="M7">
-        <v>0.9821242714602162</v>
+        <v>1.021413827487194</v>
       </c>
       <c r="N7">
-        <v>1.007579220520201</v>
+        <v>1.012102997582765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9852723647292762</v>
+        <v>1.018218269751783</v>
       </c>
       <c r="D8">
-        <v>0.9935937415387835</v>
+        <v>1.020833372679058</v>
       </c>
       <c r="E8">
-        <v>0.9936397987635938</v>
+        <v>1.019505358253153</v>
       </c>
       <c r="F8">
-        <v>0.9621897618195617</v>
+        <v>1.01680503947795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038356896972029</v>
+        <v>1.027433377158695</v>
       </c>
       <c r="J8">
-        <v>1.007316584347294</v>
+        <v>1.02330690773343</v>
       </c>
       <c r="K8">
-        <v>1.004861194674024</v>
+        <v>1.023607955785741</v>
       </c>
       <c r="L8">
-        <v>1.004906617882795</v>
+        <v>1.022283778533758</v>
       </c>
       <c r="M8">
-        <v>0.9739074818972353</v>
+        <v>1.019591295683441</v>
       </c>
       <c r="N8">
-        <v>1.00639845203482</v>
+        <v>1.011848479738909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9743019083086452</v>
+        <v>1.016033746361295</v>
       </c>
       <c r="D9">
-        <v>0.9842472277985359</v>
+        <v>1.018854273722213</v>
       </c>
       <c r="E9">
-        <v>0.984957739006695</v>
+        <v>1.01765539074711</v>
       </c>
       <c r="F9">
-        <v>0.9444583735362303</v>
+        <v>1.013135781918462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036379970474855</v>
+        <v>1.027212560688886</v>
       </c>
       <c r="J9">
-        <v>1.000795950165047</v>
+        <v>1.021960947183194</v>
       </c>
       <c r="K9">
-        <v>0.9976011600685502</v>
+        <v>1.022073816602501</v>
       </c>
       <c r="L9">
-        <v>0.9982996739204872</v>
+        <v>1.020878995687234</v>
       </c>
       <c r="M9">
-        <v>0.9585217954266192</v>
+        <v>1.016374795255028</v>
       </c>
       <c r="N9">
-        <v>1.004195911013778</v>
+        <v>1.011397894034774</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9665752009326466</v>
+        <v>1.014577106309012</v>
       </c>
       <c r="D10">
-        <v>0.9776937087347825</v>
+        <v>1.017536123836003</v>
       </c>
       <c r="E10">
-        <v>0.9788806130518624</v>
+        <v>1.016423890336624</v>
       </c>
       <c r="F10">
-        <v>0.9318339447516157</v>
+        <v>1.010688278942014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03492184240266</v>
+        <v>1.027057136662496</v>
       </c>
       <c r="J10">
-        <v>0.9961807301935039</v>
+        <v>1.021060384087702</v>
       </c>
       <c r="K10">
-        <v>0.9924777382332399</v>
+        <v>1.021049015286097</v>
       </c>
       <c r="L10">
-        <v>0.993641949585984</v>
+        <v>1.019940921769979</v>
       </c>
       <c r="M10">
-        <v>0.947553610540797</v>
+        <v>1.014226819818995</v>
       </c>
       <c r="N10">
-        <v>1.002636233697959</v>
+        <v>1.011096099374314</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9631197194285959</v>
+        <v>1.013946292211651</v>
       </c>
       <c r="D11">
-        <v>0.9747704415292897</v>
+        <v>1.016965648658746</v>
       </c>
       <c r="E11">
-        <v>0.9761725853695613</v>
+        <v>1.015891070837486</v>
       </c>
       <c r="F11">
-        <v>0.9261461182990491</v>
+        <v>1.009628087928411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034254761248859</v>
+        <v>1.026987891084258</v>
       </c>
       <c r="J11">
-        <v>0.9941115273055927</v>
+        <v>1.020669656655092</v>
       </c>
       <c r="K11">
-        <v>0.9901843677609196</v>
+        <v>1.020604780376395</v>
       </c>
       <c r="L11">
-        <v>0.9915582894707244</v>
+        <v>1.01953435819036</v>
       </c>
       <c r="M11">
-        <v>0.9426094996095699</v>
+        <v>1.013295791202978</v>
       </c>
       <c r="N11">
-        <v>1.001936860155141</v>
+        <v>1.010965086224629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9618185955458497</v>
+        <v>1.013711967405235</v>
       </c>
       <c r="D12">
-        <v>0.9736709016508557</v>
+        <v>1.016753792765448</v>
       </c>
       <c r="E12">
-        <v>0.9751544390848207</v>
+        <v>1.01569322255211</v>
       </c>
       <c r="F12">
-        <v>0.92399715939939</v>
+        <v>1.009234217867931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03400138037084</v>
+        <v>1.026961878009907</v>
       </c>
       <c r="J12">
-        <v>0.9933316169190632</v>
+        <v>1.020524406041568</v>
       </c>
       <c r="K12">
-        <v>0.9893205280947841</v>
+        <v>1.020439698130518</v>
       </c>
       <c r="L12">
-        <v>0.9907736396653269</v>
+        <v>1.019383286563693</v>
       </c>
       <c r="M12">
-        <v>0.9407412323823298</v>
+        <v>1.012949818428124</v>
       </c>
       <c r="N12">
-        <v>1.001673248108556</v>
+        <v>1.010916371909964</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9620985067029892</v>
+        <v>1.013762231438314</v>
       </c>
       <c r="D13">
-        <v>0.9739073916560833</v>
+        <v>1.016799234582388</v>
       </c>
       <c r="E13">
-        <v>0.9753734028539603</v>
+        <v>1.015735658753672</v>
       </c>
       <c r="F13">
-        <v>0.9244598105446639</v>
+        <v>1.009318707517332</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034055988720622</v>
+        <v>1.02696747112182</v>
       </c>
       <c r="J13">
-        <v>0.993499434134022</v>
+        <v>1.020555568091376</v>
       </c>
       <c r="K13">
-        <v>0.9895063792204241</v>
+        <v>1.020475112166272</v>
       </c>
       <c r="L13">
-        <v>0.9909424443075208</v>
+        <v>1.019415694466316</v>
       </c>
       <c r="M13">
-        <v>0.9411434652509474</v>
+        <v>1.013024037523188</v>
       </c>
       <c r="N13">
-        <v>1.001729971114564</v>
+        <v>1.010926823567514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9630125340568323</v>
+        <v>1.013926923104856</v>
       </c>
       <c r="D14">
-        <v>0.9746798381036802</v>
+        <v>1.016948135686891</v>
       </c>
       <c r="E14">
-        <v>0.9760886799018652</v>
+        <v>1.015874715317241</v>
       </c>
       <c r="F14">
-        <v>0.9259692426702848</v>
+        <v>1.009595531931799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034233932321092</v>
+        <v>1.026985746794877</v>
       </c>
       <c r="J14">
-        <v>0.9940472947060335</v>
+        <v>1.020657652583059</v>
       </c>
       <c r="K14">
-        <v>0.990113211351875</v>
+        <v>1.020591136129061</v>
       </c>
       <c r="L14">
-        <v>0.9914936520099181</v>
+        <v>1.019521871701211</v>
       </c>
       <c r="M14">
-        <v>0.9424557325832633</v>
+        <v>1.013267196024469</v>
       </c>
       <c r="N14">
-        <v>1.001915149482295</v>
+        <v>1.010961060508248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9635733286575713</v>
+        <v>1.01402839342445</v>
       </c>
       <c r="D15">
-        <v>0.9751539243945934</v>
+        <v>1.01703988440205</v>
       </c>
       <c r="E15">
-        <v>0.9765277366976326</v>
+        <v>1.01596040122308</v>
       </c>
       <c r="F15">
-        <v>0.9268943550905374</v>
+        <v>1.009766083383687</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034342820181175</v>
+        <v>1.026996968328223</v>
       </c>
       <c r="J15">
-        <v>0.9943833286075797</v>
+        <v>1.020720534691153</v>
       </c>
       <c r="K15">
-        <v>0.9904854902374242</v>
+        <v>1.020662612562385</v>
       </c>
       <c r="L15">
-        <v>0.9918318329608178</v>
+        <v>1.019587283603858</v>
       </c>
       <c r="M15">
-        <v>0.9432599685117129</v>
+        <v>1.013416994307481</v>
       </c>
       <c r="N15">
-        <v>1.00202872890856</v>
+        <v>1.010982148365473</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.966802124580183</v>
+        <v>1.014618969653766</v>
       </c>
       <c r="D16">
-        <v>0.9778858427415928</v>
+        <v>1.017573990560583</v>
       </c>
       <c r="E16">
-        <v>0.9790586592139805</v>
+        <v>1.016459260857626</v>
       </c>
       <c r="F16">
-        <v>0.9322065159459212</v>
+        <v>1.010758631183744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034965342780151</v>
+        <v>1.027061691279421</v>
       </c>
       <c r="J16">
-        <v>0.9963165083814562</v>
+        <v>1.021086298978056</v>
       </c>
       <c r="K16">
-        <v>0.9926283032282353</v>
+        <v>1.021078487376897</v>
       </c>
       <c r="L16">
-        <v>0.9937787735205926</v>
+        <v>1.01996789623006</v>
       </c>
       <c r="M16">
-        <v>0.9478774206096913</v>
+        <v>1.014288588790993</v>
       </c>
       <c r="N16">
-        <v>1.00268212402854</v>
+        <v>1.01110478724655</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9687973219827853</v>
+        <v>1.014989400966728</v>
       </c>
       <c r="D17">
-        <v>0.9795760199646232</v>
+        <v>1.017909099574358</v>
       </c>
       <c r="E17">
-        <v>0.980625221665599</v>
+        <v>1.016772297177296</v>
       </c>
       <c r="F17">
-        <v>0.9354774259296397</v>
+        <v>1.011381116615256</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035346118635986</v>
+        <v>1.027101769414257</v>
       </c>
       <c r="J17">
-        <v>0.9975097298177057</v>
+        <v>1.021315524900634</v>
       </c>
       <c r="K17">
-        <v>0.9939518899019623</v>
+        <v>1.021339223606862</v>
       </c>
       <c r="L17">
-        <v>0.9949817086447142</v>
+        <v>1.020206545037072</v>
       </c>
       <c r="M17">
-        <v>0.9507199692865671</v>
+        <v>1.014835060870132</v>
       </c>
       <c r="N17">
-        <v>1.003085398304797</v>
+        <v>1.011181625932375</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9699505765451684</v>
+        <v>1.015205459659098</v>
       </c>
       <c r="D18">
-        <v>0.9805536792983968</v>
+        <v>1.018104591203798</v>
       </c>
       <c r="E18">
-        <v>0.9815316357887512</v>
+        <v>1.016954927275224</v>
       </c>
       <c r="F18">
-        <v>0.9373641534770826</v>
+        <v>1.011744163120368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035564790960449</v>
+        <v>1.027124958544882</v>
       </c>
       <c r="J18">
-        <v>0.9981989357365282</v>
+        <v>1.021449153483865</v>
       </c>
       <c r="K18">
-        <v>0.9947167420946499</v>
+        <v>1.02149125944899</v>
       </c>
       <c r="L18">
-        <v>0.9956769584845131</v>
+        <v>1.020345709016904</v>
       </c>
       <c r="M18">
-        <v>0.9523593691957835</v>
+        <v>1.0151537183855</v>
       </c>
       <c r="N18">
-        <v>1.003318319782065</v>
+        <v>1.01122641240553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9703420559231698</v>
+        <v>1.015279128809744</v>
       </c>
       <c r="D19">
-        <v>0.9808856709475737</v>
+        <v>1.0181712535808</v>
       </c>
       <c r="E19">
-        <v>0.9818394772360038</v>
+        <v>1.017017206417911</v>
       </c>
       <c r="F19">
-        <v>0.9380039784213533</v>
+        <v>1.011867946239436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035638777874948</v>
+        <v>1.027132833585246</v>
       </c>
       <c r="J19">
-        <v>0.998432806772432</v>
+        <v>1.021494704659249</v>
       </c>
       <c r="K19">
-        <v>0.994976341123614</v>
+        <v>1.0215430917418</v>
       </c>
       <c r="L19">
-        <v>0.9959129534072838</v>
+        <v>1.020393154260372</v>
       </c>
       <c r="M19">
-        <v>0.9529152777862931</v>
+        <v>1.015262357208804</v>
       </c>
       <c r="N19">
-        <v>1.003397356054877</v>
+        <v>1.011241677968512</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9685843510257073</v>
+        <v>1.014949657984323</v>
       </c>
       <c r="D20">
-        <v>0.9793955332493837</v>
+        <v>1.017873142630055</v>
       </c>
       <c r="E20">
-        <v>0.9804579083040519</v>
+        <v>1.016738707068032</v>
       </c>
       <c r="F20">
-        <v>0.9351286952215313</v>
+        <v>1.011314333873243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035305621156132</v>
+        <v>1.02709748883005</v>
       </c>
       <c r="J20">
-        <v>0.9973824144474208</v>
+        <v>1.021290938889502</v>
       </c>
       <c r="K20">
-        <v>0.9938106286010595</v>
+        <v>1.021311253958787</v>
       </c>
       <c r="L20">
-        <v>0.994853311723512</v>
+        <v>1.020180943984857</v>
       </c>
       <c r="M20">
-        <v>0.9504169330867943</v>
+        <v>1.014776438980588</v>
       </c>
       <c r="N20">
-        <v>1.003042370406333</v>
+        <v>1.011173385202525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9627438712183173</v>
+        <v>1.013878425858781</v>
       </c>
       <c r="D21">
-        <v>0.9744527575771392</v>
+        <v>1.016904286808198</v>
       </c>
       <c r="E21">
-        <v>0.9758783936363732</v>
+        <v>1.015833764839893</v>
       </c>
       <c r="F21">
-        <v>0.9255257789250443</v>
+        <v>1.009514015971745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034181688869025</v>
+        <v>1.026980373128984</v>
       </c>
       <c r="J21">
-        <v>0.9938862816295125</v>
+        <v>1.020627594477481</v>
       </c>
       <c r="K21">
-        <v>0.9899348513201875</v>
+        <v>1.0205569719972</v>
       </c>
       <c r="L21">
-        <v>0.991331635552084</v>
+        <v>1.019490606692743</v>
       </c>
       <c r="M21">
-        <v>0.9420702023818803</v>
+        <v>1.013195596019978</v>
       </c>
       <c r="N21">
-        <v>1.001860726808922</v>
+        <v>1.010950979968305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9589692455611885</v>
+        <v>1.013204827947955</v>
       </c>
       <c r="D22">
-        <v>0.9712652403440617</v>
+        <v>1.016295383220564</v>
       </c>
       <c r="E22">
-        <v>0.9729276841508254</v>
+        <v>1.015265165620469</v>
       </c>
       <c r="F22">
-        <v>0.9192765774235105</v>
+        <v>1.008381688287256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033442510840027</v>
+        <v>1.026905047440057</v>
       </c>
       <c r="J22">
-        <v>0.9916222618555546</v>
+        <v>1.020209846204252</v>
       </c>
       <c r="K22">
-        <v>0.9874282700758431</v>
+        <v>1.020082298974185</v>
       </c>
       <c r="L22">
-        <v>0.9890552266494528</v>
+        <v>1.019056241320111</v>
       </c>
       <c r="M22">
-        <v>0.9366367875042069</v>
+        <v>1.012200802172401</v>
       </c>
       <c r="N22">
-        <v>1.001095472529248</v>
+        <v>1.010810854537298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9609803606597437</v>
+        <v>1.013561921896888</v>
       </c>
       <c r="D23">
-        <v>0.9729628753018823</v>
+        <v>1.01661815039164</v>
       </c>
       <c r="E23">
-        <v>0.9744989500485319</v>
+        <v>1.015566555303895</v>
       </c>
       <c r="F23">
-        <v>0.9226105370125665</v>
+        <v>1.008981996502686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033837529590592</v>
+        <v>1.026945139186123</v>
       </c>
       <c r="J23">
-        <v>0.9928289507567403</v>
+        <v>1.020431366742184</v>
       </c>
       <c r="K23">
-        <v>0.9887639278681727</v>
+        <v>1.020333972550967</v>
       </c>
       <c r="L23">
-        <v>0.9902681214343808</v>
+        <v>1.019286537238445</v>
       </c>
       <c r="M23">
-        <v>0.9395356539468154</v>
+        <v>1.012728244250009</v>
       </c>
       <c r="N23">
-        <v>1.001503343836074</v>
+        <v>1.010885165212439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9686806158322107</v>
+        <v>1.014967616150681</v>
       </c>
       <c r="D24">
-        <v>0.9794771126815133</v>
+        <v>1.017889389938134</v>
       </c>
       <c r="E24">
-        <v>0.9805335326229824</v>
+        <v>1.016753884864814</v>
       </c>
       <c r="F24">
-        <v>0.9352863367218172</v>
+        <v>1.011344510237738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03532393079976</v>
+        <v>1.027099423621943</v>
       </c>
       <c r="J24">
-        <v>0.9974399636849904</v>
+        <v>1.021302048481274</v>
       </c>
       <c r="K24">
-        <v>0.9938744806173214</v>
+        <v>1.021323892384466</v>
       </c>
       <c r="L24">
-        <v>0.9949113485018252</v>
+        <v>1.02019251210896</v>
       </c>
       <c r="M24">
-        <v>0.9505539194261605</v>
+        <v>1.014802927967044</v>
       </c>
       <c r="N24">
-        <v>1.003061819957642</v>
+        <v>1.011177108933174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9772071498855868</v>
+        <v>1.016598548387758</v>
       </c>
       <c r="D25">
-        <v>0.9867175382815179</v>
+        <v>1.019365698980129</v>
       </c>
       <c r="E25">
-        <v>0.9872507021817</v>
+        <v>1.018133334130978</v>
       </c>
       <c r="F25">
-        <v>0.949174496786016</v>
+        <v>1.014084581459485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036914995770593</v>
+        <v>1.027271095695447</v>
       </c>
       <c r="J25">
-        <v>1.002526708658912</v>
+        <v>1.022309483938433</v>
       </c>
       <c r="K25">
-        <v>0.9995256073427295</v>
+        <v>1.022470788406222</v>
       </c>
       <c r="L25">
-        <v>1.000050212217573</v>
+        <v>1.021242439827313</v>
       </c>
       <c r="M25">
-        <v>0.9626166219997476</v>
+        <v>1.017206957359882</v>
       </c>
       <c r="N25">
-        <v>1.004780678476339</v>
+        <v>1.011514628936236</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017899151126508</v>
+        <v>0.9837138031363764</v>
       </c>
       <c r="D2">
-        <v>1.020544088705634</v>
+        <v>0.9922627980672528</v>
       </c>
       <c r="E2">
-        <v>1.019234875372977</v>
+        <v>0.9924023773307737</v>
       </c>
       <c r="F2">
-        <v>1.016269099976557</v>
+        <v>0.9596828634704255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027402073278272</v>
+        <v>1.038083582317483</v>
       </c>
       <c r="J2">
-        <v>1.023110646044167</v>
+        <v>1.006392788010601</v>
       </c>
       <c r="K2">
-        <v>1.023384060977011</v>
+        <v>1.003830987320634</v>
       </c>
       <c r="L2">
-        <v>1.022078725679131</v>
+        <v>1.003968583835499</v>
       </c>
       <c r="M2">
-        <v>1.01912177548163</v>
+        <v>0.9717339998520003</v>
       </c>
       <c r="N2">
-        <v>1.011782814275983</v>
+        <v>1.006086519651056</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018843382827272</v>
+        <v>0.9882833008321905</v>
       </c>
       <c r="D3">
-        <v>1.021400219807826</v>
+        <v>0.9961679471587042</v>
       </c>
       <c r="E3">
-        <v>1.020035439859249</v>
+        <v>0.9960341769359118</v>
       </c>
       <c r="F3">
-        <v>1.017854826511735</v>
+        <v>0.9670225423525201</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027493721362179</v>
+        <v>1.03887705769627</v>
       </c>
       <c r="J3">
-        <v>1.023690992705011</v>
+        <v>1.009098552311466</v>
       </c>
       <c r="K3">
-        <v>1.024046317098267</v>
+        <v>1.006850095775825</v>
       </c>
       <c r="L3">
-        <v>1.022685286405229</v>
+        <v>1.006718053972269</v>
       </c>
       <c r="M3">
-        <v>1.020510686138882</v>
+        <v>0.978095520588623</v>
       </c>
       <c r="N3">
-        <v>1.011976949331766</v>
+        <v>1.007000028589601</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019454310653812</v>
+        <v>0.9911730351746153</v>
       </c>
       <c r="D4">
-        <v>1.02195443230348</v>
+        <v>0.9986423189411688</v>
       </c>
       <c r="E4">
-        <v>1.020553803289768</v>
+        <v>0.9983370255563154</v>
       </c>
       <c r="F4">
-        <v>1.018880741203984</v>
+        <v>0.9716489171914829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027551424534012</v>
+        <v>1.039365980399083</v>
       </c>
       <c r="J4">
-        <v>1.02406588396398</v>
+        <v>1.010805262881789</v>
       </c>
       <c r="K4">
-        <v>1.024474443555548</v>
+        <v>1.008757157643628</v>
       </c>
       <c r="L4">
-        <v>1.023077467842818</v>
+        <v>1.008455562738283</v>
       </c>
       <c r="M4">
-        <v>1.021408783869636</v>
+        <v>0.9821020026412317</v>
       </c>
       <c r="N4">
-        <v>1.01210229408886</v>
+        <v>1.007576018049227</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019711132102337</v>
+        <v>0.99237247093003</v>
       </c>
       <c r="D5">
-        <v>1.022187480023585</v>
+        <v>0.9996704619623986</v>
       </c>
       <c r="E5">
-        <v>1.0207718053412</v>
+        <v>0.9992942869213215</v>
       </c>
       <c r="F5">
-        <v>1.019312003953308</v>
+        <v>0.9735659812222264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027575299816638</v>
+        <v>1.039565786164518</v>
       </c>
       <c r="J5">
-        <v>1.024223336969571</v>
+        <v>1.011512590766329</v>
       </c>
       <c r="K5">
-        <v>1.024654332642535</v>
+        <v>1.009548165751661</v>
       </c>
       <c r="L5">
-        <v>1.023242267976592</v>
+        <v>1.009176422511081</v>
       </c>
       <c r="M5">
-        <v>1.021786200453866</v>
+        <v>0.9837613581629087</v>
       </c>
       <c r="N5">
-        <v>1.012154923455355</v>
+        <v>1.007814672572676</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019754252817948</v>
+        <v>0.9925729757854663</v>
       </c>
       <c r="D6">
-        <v>1.02222661308265</v>
+        <v>0.9998423968621787</v>
       </c>
       <c r="E6">
-        <v>1.020808413644014</v>
+        <v>0.9994543908903304</v>
       </c>
       <c r="F6">
-        <v>1.019384413166749</v>
+        <v>0.9738862738285732</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027579286106982</v>
+        <v>1.039599001613454</v>
       </c>
       <c r="J6">
-        <v>1.024249765150348</v>
+        <v>1.011630768384228</v>
       </c>
       <c r="K6">
-        <v>1.02468453122164</v>
+        <v>1.009680362328148</v>
       </c>
       <c r="L6">
-        <v>1.02326993436133</v>
+        <v>1.009296905952822</v>
       </c>
       <c r="M6">
-        <v>1.021849562071874</v>
+        <v>0.9840385438245119</v>
       </c>
       <c r="N6">
-        <v>1.012163756310542</v>
+        <v>1.007854542500628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019457742363969</v>
+        <v>0.9911891218204758</v>
       </c>
       <c r="D7">
-        <v>1.021957546075773</v>
+        <v>0.9986561038882181</v>
       </c>
       <c r="E7">
-        <v>1.020556715921972</v>
+        <v>0.9983498586288304</v>
       </c>
       <c r="F7">
-        <v>1.018886503875825</v>
+        <v>0.971674640609907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027551745062483</v>
+        <v>1.039368672590941</v>
       </c>
       <c r="J7">
-        <v>1.024067988453211</v>
+        <v>1.010814753714535</v>
       </c>
       <c r="K7">
-        <v>1.02447684761685</v>
+        <v>1.008767768730878</v>
       </c>
       <c r="L7">
-        <v>1.023079670197135</v>
+        <v>1.008465232111915</v>
       </c>
       <c r="M7">
-        <v>1.021413827487194</v>
+        <v>0.982124271460216</v>
       </c>
       <c r="N7">
-        <v>1.012102997582765</v>
+        <v>1.007579220520201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018218269751783</v>
+        <v>0.9852723647292767</v>
       </c>
       <c r="D8">
-        <v>1.020833372679058</v>
+        <v>0.9935937415387842</v>
       </c>
       <c r="E8">
-        <v>1.019505358253153</v>
+        <v>0.993639798763594</v>
       </c>
       <c r="F8">
-        <v>1.01680503947795</v>
+        <v>0.9621897618195626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027433377158695</v>
+        <v>1.03835689697203</v>
       </c>
       <c r="J8">
-        <v>1.02330690773343</v>
+        <v>1.007316584347295</v>
       </c>
       <c r="K8">
-        <v>1.023607955785741</v>
+        <v>1.004861194674025</v>
       </c>
       <c r="L8">
-        <v>1.022283778533758</v>
+        <v>1.004906617882795</v>
       </c>
       <c r="M8">
-        <v>1.019591295683441</v>
+        <v>0.9739074818972361</v>
       </c>
       <c r="N8">
-        <v>1.011848479738909</v>
+        <v>1.00639845203482</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016033746361295</v>
+        <v>0.974301908308645</v>
       </c>
       <c r="D9">
-        <v>1.018854273722213</v>
+        <v>0.9842472277985358</v>
       </c>
       <c r="E9">
-        <v>1.01765539074711</v>
+        <v>0.9849577390066945</v>
       </c>
       <c r="F9">
-        <v>1.013135781918462</v>
+        <v>0.9444583735362304</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027212560688886</v>
+        <v>1.036379970474855</v>
       </c>
       <c r="J9">
-        <v>1.021960947183194</v>
+        <v>1.000795950165046</v>
       </c>
       <c r="K9">
-        <v>1.022073816602501</v>
+        <v>0.9976011600685502</v>
       </c>
       <c r="L9">
-        <v>1.020878995687234</v>
+        <v>0.9982996739204865</v>
       </c>
       <c r="M9">
-        <v>1.016374795255028</v>
+        <v>0.9585217954266194</v>
       </c>
       <c r="N9">
-        <v>1.011397894034774</v>
+        <v>1.004195911013778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014577106309012</v>
+        <v>0.9665752009326459</v>
       </c>
       <c r="D10">
-        <v>1.017536123836003</v>
+        <v>0.9776937087347816</v>
       </c>
       <c r="E10">
-        <v>1.016423890336624</v>
+        <v>0.9788806130518616</v>
       </c>
       <c r="F10">
-        <v>1.010688278942014</v>
+        <v>0.9318339447516153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027057136662496</v>
+        <v>1.03492184240266</v>
       </c>
       <c r="J10">
-        <v>1.021060384087702</v>
+        <v>0.9961807301935031</v>
       </c>
       <c r="K10">
-        <v>1.021049015286097</v>
+        <v>0.9924777382332391</v>
       </c>
       <c r="L10">
-        <v>1.019940921769979</v>
+        <v>0.9936419495859832</v>
       </c>
       <c r="M10">
-        <v>1.014226819818995</v>
+        <v>0.9475536105407965</v>
       </c>
       <c r="N10">
-        <v>1.011096099374314</v>
+        <v>1.002636233697959</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013946292211651</v>
+        <v>0.9631197194285954</v>
       </c>
       <c r="D11">
-        <v>1.016965648658746</v>
+        <v>0.9747704415292893</v>
       </c>
       <c r="E11">
-        <v>1.015891070837486</v>
+        <v>0.9761725853695609</v>
       </c>
       <c r="F11">
-        <v>1.009628087928411</v>
+        <v>0.9261461182990486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026987891084258</v>
+        <v>1.034254761248859</v>
       </c>
       <c r="J11">
-        <v>1.020669656655092</v>
+        <v>0.9941115273055924</v>
       </c>
       <c r="K11">
-        <v>1.020604780376395</v>
+        <v>0.9901843677609191</v>
       </c>
       <c r="L11">
-        <v>1.01953435819036</v>
+        <v>0.9915582894707239</v>
       </c>
       <c r="M11">
-        <v>1.013295791202978</v>
+        <v>0.9426094996095695</v>
       </c>
       <c r="N11">
-        <v>1.010965086224629</v>
+        <v>1.001936860155141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013711967405235</v>
+        <v>0.961818595545849</v>
       </c>
       <c r="D12">
-        <v>1.016753792765448</v>
+        <v>0.973670901650855</v>
       </c>
       <c r="E12">
-        <v>1.01569322255211</v>
+        <v>0.97515443908482</v>
       </c>
       <c r="F12">
-        <v>1.009234217867931</v>
+        <v>0.9239971593993888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026961878009907</v>
+        <v>1.03400138037084</v>
       </c>
       <c r="J12">
-        <v>1.020524406041568</v>
+        <v>0.9933316169190628</v>
       </c>
       <c r="K12">
-        <v>1.020439698130518</v>
+        <v>0.9893205280947834</v>
       </c>
       <c r="L12">
-        <v>1.019383286563693</v>
+        <v>0.9907736396653264</v>
       </c>
       <c r="M12">
-        <v>1.012949818428124</v>
+        <v>0.9407412323823287</v>
       </c>
       <c r="N12">
-        <v>1.010916371909964</v>
+        <v>1.001673248108556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013762231438314</v>
+        <v>0.9620985067029887</v>
       </c>
       <c r="D13">
-        <v>1.016799234582388</v>
+        <v>0.9739073916560828</v>
       </c>
       <c r="E13">
-        <v>1.015735658753672</v>
+        <v>0.97537340285396</v>
       </c>
       <c r="F13">
-        <v>1.009318707517332</v>
+        <v>0.9244598105446633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02696747112182</v>
+        <v>1.034055988720622</v>
       </c>
       <c r="J13">
-        <v>1.020555568091376</v>
+        <v>0.9934994341340216</v>
       </c>
       <c r="K13">
-        <v>1.020475112166272</v>
+        <v>0.9895063792204236</v>
       </c>
       <c r="L13">
-        <v>1.019415694466316</v>
+        <v>0.9909424443075203</v>
       </c>
       <c r="M13">
-        <v>1.013024037523188</v>
+        <v>0.9411434652509472</v>
       </c>
       <c r="N13">
-        <v>1.010926823567514</v>
+        <v>1.001729971114564</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013926923104856</v>
+        <v>0.9630125340568317</v>
       </c>
       <c r="D14">
-        <v>1.016948135686891</v>
+        <v>0.9746798381036795</v>
       </c>
       <c r="E14">
-        <v>1.015874715317241</v>
+        <v>0.9760886799018645</v>
       </c>
       <c r="F14">
-        <v>1.009595531931799</v>
+        <v>0.9259692426702845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026985746794877</v>
+        <v>1.034233932321092</v>
       </c>
       <c r="J14">
-        <v>1.020657652583059</v>
+        <v>0.9940472947060329</v>
       </c>
       <c r="K14">
-        <v>1.020591136129061</v>
+        <v>0.9901132113518742</v>
       </c>
       <c r="L14">
-        <v>1.019521871701211</v>
+        <v>0.9914936520099175</v>
       </c>
       <c r="M14">
-        <v>1.013267196024469</v>
+        <v>0.942455732583263</v>
       </c>
       <c r="N14">
-        <v>1.010961060508248</v>
+        <v>1.001915149482295</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01402839342445</v>
+        <v>0.9635733286575713</v>
       </c>
       <c r="D15">
-        <v>1.01703988440205</v>
+        <v>0.9751539243945937</v>
       </c>
       <c r="E15">
-        <v>1.01596040122308</v>
+        <v>0.9765277366976326</v>
       </c>
       <c r="F15">
-        <v>1.009766083383687</v>
+        <v>0.9268943550905373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026996968328223</v>
+        <v>1.034342820181174</v>
       </c>
       <c r="J15">
-        <v>1.020720534691153</v>
+        <v>0.9943833286075796</v>
       </c>
       <c r="K15">
-        <v>1.020662612562385</v>
+        <v>0.9904854902374243</v>
       </c>
       <c r="L15">
-        <v>1.019587283603858</v>
+        <v>0.9918318329608179</v>
       </c>
       <c r="M15">
-        <v>1.013416994307481</v>
+        <v>0.9432599685117127</v>
       </c>
       <c r="N15">
-        <v>1.010982148365473</v>
+        <v>1.00202872890856</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014618969653766</v>
+        <v>0.9668021245801823</v>
       </c>
       <c r="D16">
-        <v>1.017573990560583</v>
+        <v>0.9778858427415924</v>
       </c>
       <c r="E16">
-        <v>1.016459260857626</v>
+        <v>0.9790586592139801</v>
       </c>
       <c r="F16">
-        <v>1.010758631183744</v>
+        <v>0.9322065159459204</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027061691279421</v>
+        <v>1.03496534278015</v>
       </c>
       <c r="J16">
-        <v>1.021086298978056</v>
+        <v>0.9963165083814557</v>
       </c>
       <c r="K16">
-        <v>1.021078487376897</v>
+        <v>0.9926283032282347</v>
       </c>
       <c r="L16">
-        <v>1.01996789623006</v>
+        <v>0.9937787735205921</v>
       </c>
       <c r="M16">
-        <v>1.014288588790993</v>
+        <v>0.9478774206096906</v>
       </c>
       <c r="N16">
-        <v>1.01110478724655</v>
+        <v>1.00268212402854</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014989400966728</v>
+        <v>0.9687973219827842</v>
       </c>
       <c r="D17">
-        <v>1.017909099574358</v>
+        <v>0.9795760199646222</v>
       </c>
       <c r="E17">
-        <v>1.016772297177296</v>
+        <v>0.9806252216655977</v>
       </c>
       <c r="F17">
-        <v>1.011381116615256</v>
+        <v>0.9354774259296383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027101769414257</v>
+        <v>1.035346118635985</v>
       </c>
       <c r="J17">
-        <v>1.021315524900634</v>
+        <v>0.9975097298177045</v>
       </c>
       <c r="K17">
-        <v>1.021339223606862</v>
+        <v>0.9939518899019611</v>
       </c>
       <c r="L17">
-        <v>1.020206545037072</v>
+        <v>0.9949817086447131</v>
       </c>
       <c r="M17">
-        <v>1.014835060870132</v>
+        <v>0.9507199692865659</v>
       </c>
       <c r="N17">
-        <v>1.011181625932375</v>
+        <v>1.003085398304797</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015205459659098</v>
+        <v>0.9699505765451683</v>
       </c>
       <c r="D18">
-        <v>1.018104591203798</v>
+        <v>0.9805536792983967</v>
       </c>
       <c r="E18">
-        <v>1.016954927275224</v>
+        <v>0.9815316357887508</v>
       </c>
       <c r="F18">
-        <v>1.011744163120368</v>
+        <v>0.9373641534770828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027124958544882</v>
+        <v>1.035564790960448</v>
       </c>
       <c r="J18">
-        <v>1.021449153483865</v>
+        <v>0.998198935736528</v>
       </c>
       <c r="K18">
-        <v>1.02149125944899</v>
+        <v>0.9947167420946499</v>
       </c>
       <c r="L18">
-        <v>1.020345709016904</v>
+        <v>0.9956769584845127</v>
       </c>
       <c r="M18">
-        <v>1.0151537183855</v>
+        <v>0.9523593691957838</v>
       </c>
       <c r="N18">
-        <v>1.01122641240553</v>
+        <v>1.003318319782064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015279128809744</v>
+        <v>0.9703420559231699</v>
       </c>
       <c r="D19">
-        <v>1.0181712535808</v>
+        <v>0.9808856709475738</v>
       </c>
       <c r="E19">
-        <v>1.017017206417911</v>
+        <v>0.9818394772360037</v>
       </c>
       <c r="F19">
-        <v>1.011867946239436</v>
+        <v>0.9380039784213526</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027132833585246</v>
+        <v>1.035638777874948</v>
       </c>
       <c r="J19">
-        <v>1.021494704659249</v>
+        <v>0.9984328067724321</v>
       </c>
       <c r="K19">
-        <v>1.0215430917418</v>
+        <v>0.9949763411236141</v>
       </c>
       <c r="L19">
-        <v>1.020393154260372</v>
+        <v>0.9959129534072838</v>
       </c>
       <c r="M19">
-        <v>1.015262357208804</v>
+        <v>0.9529152777862926</v>
       </c>
       <c r="N19">
-        <v>1.011241677968512</v>
+        <v>1.003397356054877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014949657984323</v>
+        <v>0.9685843510257072</v>
       </c>
       <c r="D20">
-        <v>1.017873142630055</v>
+        <v>0.9793955332493834</v>
       </c>
       <c r="E20">
-        <v>1.016738707068032</v>
+        <v>0.9804579083040516</v>
       </c>
       <c r="F20">
-        <v>1.011314333873243</v>
+        <v>0.9351286952215311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02709748883005</v>
+        <v>1.035305621156132</v>
       </c>
       <c r="J20">
-        <v>1.021290938889502</v>
+        <v>0.9973824144474205</v>
       </c>
       <c r="K20">
-        <v>1.021311253958787</v>
+        <v>0.9938106286010593</v>
       </c>
       <c r="L20">
-        <v>1.020180943984857</v>
+        <v>0.9948533117235117</v>
       </c>
       <c r="M20">
-        <v>1.014776438980588</v>
+        <v>0.9504169330867942</v>
       </c>
       <c r="N20">
-        <v>1.011173385202525</v>
+        <v>1.003042370406333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013878425858781</v>
+        <v>0.9627438712183169</v>
       </c>
       <c r="D21">
-        <v>1.016904286808198</v>
+        <v>0.9744527575771387</v>
       </c>
       <c r="E21">
-        <v>1.015833764839893</v>
+        <v>0.975878393636373</v>
       </c>
       <c r="F21">
-        <v>1.009514015971745</v>
+        <v>0.9255257789250435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026980373128984</v>
+        <v>1.034181688869025</v>
       </c>
       <c r="J21">
-        <v>1.020627594477481</v>
+        <v>0.9938862816295123</v>
       </c>
       <c r="K21">
-        <v>1.0205569719972</v>
+        <v>0.9899348513201871</v>
       </c>
       <c r="L21">
-        <v>1.019490606692743</v>
+        <v>0.9913316355520839</v>
       </c>
       <c r="M21">
-        <v>1.013195596019978</v>
+        <v>0.9420702023818798</v>
       </c>
       <c r="N21">
-        <v>1.010950979968305</v>
+        <v>1.001860726808922</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013204827947955</v>
+        <v>0.9589692455611883</v>
       </c>
       <c r="D22">
-        <v>1.016295383220564</v>
+        <v>0.9712652403440616</v>
       </c>
       <c r="E22">
-        <v>1.015265165620469</v>
+        <v>0.9729276841508251</v>
       </c>
       <c r="F22">
-        <v>1.008381688287256</v>
+        <v>0.9192765774235105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026905047440057</v>
+        <v>1.033442510840027</v>
       </c>
       <c r="J22">
-        <v>1.020209846204252</v>
+        <v>0.9916222618555545</v>
       </c>
       <c r="K22">
-        <v>1.020082298974185</v>
+        <v>0.9874282700758429</v>
       </c>
       <c r="L22">
-        <v>1.019056241320111</v>
+        <v>0.9890552266494527</v>
       </c>
       <c r="M22">
-        <v>1.012200802172401</v>
+        <v>0.9366367875042069</v>
       </c>
       <c r="N22">
-        <v>1.010810854537298</v>
+        <v>1.001095472529248</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013561921896888</v>
+        <v>0.9609803606597435</v>
       </c>
       <c r="D23">
-        <v>1.01661815039164</v>
+        <v>0.9729628753018821</v>
       </c>
       <c r="E23">
-        <v>1.015566555303895</v>
+        <v>0.9744989500485313</v>
       </c>
       <c r="F23">
-        <v>1.008981996502686</v>
+        <v>0.9226105370125665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026945139186123</v>
+        <v>1.033837529590592</v>
       </c>
       <c r="J23">
-        <v>1.020431366742184</v>
+        <v>0.99282895075674</v>
       </c>
       <c r="K23">
-        <v>1.020333972550967</v>
+        <v>0.9887639278681724</v>
       </c>
       <c r="L23">
-        <v>1.019286537238445</v>
+        <v>0.9902681214343806</v>
       </c>
       <c r="M23">
-        <v>1.012728244250009</v>
+        <v>0.9395356539468154</v>
       </c>
       <c r="N23">
-        <v>1.010885165212439</v>
+        <v>1.001503343836074</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014967616150681</v>
+        <v>0.9686806158322098</v>
       </c>
       <c r="D24">
-        <v>1.017889389938134</v>
+        <v>0.9794771126815124</v>
       </c>
       <c r="E24">
-        <v>1.016753884864814</v>
+        <v>0.9805335326229813</v>
       </c>
       <c r="F24">
-        <v>1.011344510237738</v>
+        <v>0.9352863367218166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027099423621943</v>
+        <v>1.03532393079976</v>
       </c>
       <c r="J24">
-        <v>1.021302048481274</v>
+        <v>0.9974399636849896</v>
       </c>
       <c r="K24">
-        <v>1.021323892384466</v>
+        <v>0.9938744806173205</v>
       </c>
       <c r="L24">
-        <v>1.02019251210896</v>
+        <v>0.9949113485018242</v>
       </c>
       <c r="M24">
-        <v>1.014802927967044</v>
+        <v>0.9505539194261601</v>
       </c>
       <c r="N24">
-        <v>1.011177108933174</v>
+        <v>1.003061819957642</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016598548387758</v>
+        <v>0.9772071498855864</v>
       </c>
       <c r="D25">
-        <v>1.019365698980129</v>
+        <v>0.9867175382815174</v>
       </c>
       <c r="E25">
-        <v>1.018133334130978</v>
+        <v>0.9872507021816994</v>
       </c>
       <c r="F25">
-        <v>1.014084581459485</v>
+        <v>0.9491744967860156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027271095695447</v>
+        <v>1.036914995770593</v>
       </c>
       <c r="J25">
-        <v>1.022309483938433</v>
+        <v>1.002526708658912</v>
       </c>
       <c r="K25">
-        <v>1.022470788406222</v>
+        <v>0.9995256073427292</v>
       </c>
       <c r="L25">
-        <v>1.021242439827313</v>
+        <v>1.000050212217573</v>
       </c>
       <c r="M25">
-        <v>1.017206957359882</v>
+        <v>0.9626166219997471</v>
       </c>
       <c r="N25">
-        <v>1.011514628936236</v>
+        <v>1.004780678476339</v>
       </c>
     </row>
   </sheetData>
